--- a/Project_File.xlsx
+++ b/Project_File.xlsx
@@ -1,13 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hahur\PycharmProjects\aspProject\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{99A212D5-94D2-4B6A-8610-1376F5DF5185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28740" windowHeight="12240"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="International Monthly Visitor A" sheetId="1" r:id="rId1"/>
+    <sheet name="Project_File" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -1564,7 +1570,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2365,48 +2371,48 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI480"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="6.7109375" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.85546875" customWidth="1"/>
-    <col min="14" max="14" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.5703125" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.7265625" customWidth="1"/>
+    <col min="7" max="7" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.81640625" customWidth="1"/>
+    <col min="14" max="14" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.54296875" customWidth="1"/>
+    <col min="20" max="20" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.453125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="19.26953125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="9.26953125" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="8" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="9" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="6.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2513,7 +2519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -2620,7 +2626,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -2727,7 +2733,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>37</v>
       </c>
@@ -2834,7 +2840,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -2941,7 +2947,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -3048,7 +3054,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -3155,7 +3161,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>41</v>
       </c>
@@ -3262,7 +3268,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -3369,7 +3375,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>43</v>
       </c>
@@ -3476,7 +3482,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>44</v>
       </c>
@@ -3583,7 +3589,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>45</v>
       </c>
@@ -3690,7 +3696,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>46</v>
       </c>
@@ -3797,7 +3803,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>47</v>
       </c>
@@ -3904,7 +3910,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>48</v>
       </c>
@@ -4011,7 +4017,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>49</v>
       </c>
@@ -4118,7 +4124,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>50</v>
       </c>
@@ -4225,7 +4231,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -4332,7 +4338,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>52</v>
       </c>
@@ -4439,7 +4445,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>53</v>
       </c>
@@ -4546,7 +4552,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>54</v>
       </c>
@@ -4653,7 +4659,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>55</v>
       </c>
@@ -4760,7 +4766,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>56</v>
       </c>
@@ -4867,7 +4873,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>57</v>
       </c>
@@ -4974,7 +4980,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>58</v>
       </c>
@@ -5081,7 +5087,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>59</v>
       </c>
@@ -5188,7 +5194,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>60</v>
       </c>
@@ -5295,7 +5301,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>61</v>
       </c>
@@ -5402,7 +5408,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>62</v>
       </c>
@@ -5509,7 +5515,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>63</v>
       </c>
@@ -5616,7 +5622,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>64</v>
       </c>
@@ -5723,7 +5729,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>65</v>
       </c>
@@ -5830,7 +5836,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>66</v>
       </c>
@@ -5937,7 +5943,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>67</v>
       </c>
@@ -6044,7 +6050,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>68</v>
       </c>
@@ -6151,7 +6157,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>69</v>
       </c>
@@ -6258,7 +6264,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>70</v>
       </c>
@@ -6365,7 +6371,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>71</v>
       </c>
@@ -6472,7 +6478,7 @@
         <v>1497</v>
       </c>
     </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>72</v>
       </c>
@@ -6579,7 +6585,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>73</v>
       </c>
@@ -6686,7 +6692,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>74</v>
       </c>
@@ -6793,7 +6799,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>75</v>
       </c>
@@ -6900,7 +6906,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>76</v>
       </c>
@@ -7007,7 +7013,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>77</v>
       </c>
@@ -7114,7 +7120,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>78</v>
       </c>
@@ -7221,7 +7227,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>79</v>
       </c>
@@ -7328,7 +7334,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>80</v>
       </c>
@@ -7435,7 +7441,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>81</v>
       </c>
@@ -7542,7 +7548,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>82</v>
       </c>
@@ -7649,7 +7655,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>83</v>
       </c>
@@ -7756,7 +7762,7 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>84</v>
       </c>
@@ -7863,7 +7869,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>85</v>
       </c>
@@ -7970,7 +7976,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>86</v>
       </c>
@@ -8077,7 +8083,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>87</v>
       </c>
@@ -8184,7 +8190,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>88</v>
       </c>
@@ -8291,7 +8297,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>89</v>
       </c>
@@ -8398,7 +8404,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>90</v>
       </c>
@@ -8505,7 +8511,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>91</v>
       </c>
@@ -8612,7 +8618,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>92</v>
       </c>
@@ -8719,7 +8725,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>93</v>
       </c>
@@ -8826,7 +8832,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>94</v>
       </c>
@@ -8933,7 +8939,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="62" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>95</v>
       </c>
@@ -9040,7 +9046,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="63" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>96</v>
       </c>
@@ -9147,7 +9153,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="64" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>97</v>
       </c>
@@ -9254,7 +9260,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="65" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>98</v>
       </c>
@@ -9361,7 +9367,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="66" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>99</v>
       </c>
@@ -9468,7 +9474,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="67" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>100</v>
       </c>
@@ -9575,7 +9581,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="68" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>101</v>
       </c>
@@ -9682,7 +9688,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="69" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>102</v>
       </c>
@@ -9789,7 +9795,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="70" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>103</v>
       </c>
@@ -9896,7 +9902,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="71" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>104</v>
       </c>
@@ -10003,7 +10009,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="72" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>105</v>
       </c>
@@ -10110,7 +10116,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="73" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>106</v>
       </c>
@@ -10217,7 +10223,7 @@
         <v>1663</v>
       </c>
     </row>
-    <row r="74" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>107</v>
       </c>
@@ -10324,7 +10330,7 @@
         <v>1644</v>
       </c>
     </row>
-    <row r="75" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>108</v>
       </c>
@@ -10431,7 +10437,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="76" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>109</v>
       </c>
@@ -10538,7 +10544,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="77" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>110</v>
       </c>
@@ -10645,7 +10651,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="78" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>111</v>
       </c>
@@ -10752,7 +10758,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="79" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>112</v>
       </c>
@@ -10859,7 +10865,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="80" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>113</v>
       </c>
@@ -10966,7 +10972,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="81" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>114</v>
       </c>
@@ -11073,7 +11079,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="82" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>115</v>
       </c>
@@ -11180,7 +11186,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="83" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>116</v>
       </c>
@@ -11287,7 +11293,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="84" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>117</v>
       </c>
@@ -11394,7 +11400,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="85" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>118</v>
       </c>
@@ -11501,7 +11507,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="86" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>119</v>
       </c>
@@ -11608,7 +11614,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="87" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>120</v>
       </c>
@@ -11715,7 +11721,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="88" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>121</v>
       </c>
@@ -11822,7 +11828,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="89" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>122</v>
       </c>
@@ -11929,7 +11935,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="90" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>123</v>
       </c>
@@ -12036,7 +12042,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="91" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>124</v>
       </c>
@@ -12143,7 +12149,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="92" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>125</v>
       </c>
@@ -12250,7 +12256,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="93" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>126</v>
       </c>
@@ -12357,7 +12363,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="94" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>127</v>
       </c>
@@ -12464,7 +12470,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="95" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>128</v>
       </c>
@@ -12571,7 +12577,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="96" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>129</v>
       </c>
@@ -12678,7 +12684,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="97" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>130</v>
       </c>
@@ -12785,7 +12791,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="98" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>131</v>
       </c>
@@ -12892,7 +12898,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="99" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>132</v>
       </c>
@@ -12999,7 +13005,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="100" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>133</v>
       </c>
@@ -13106,7 +13112,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="101" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>134</v>
       </c>
@@ -13213,7 +13219,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="102" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>135</v>
       </c>
@@ -13320,7 +13326,7 @@
         <v>1504</v>
       </c>
     </row>
-    <row r="103" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>136</v>
       </c>
@@ -13427,7 +13433,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="104" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>137</v>
       </c>
@@ -13534,7 +13540,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="105" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>138</v>
       </c>
@@ -13641,7 +13647,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="106" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>139</v>
       </c>
@@ -13748,7 +13754,7 @@
         <v>1599</v>
       </c>
     </row>
-    <row r="107" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>140</v>
       </c>
@@ -13855,7 +13861,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="108" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>141</v>
       </c>
@@ -13962,7 +13968,7 @@
         <v>1534</v>
       </c>
     </row>
-    <row r="109" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>142</v>
       </c>
@@ -14069,7 +14075,7 @@
         <v>1626</v>
       </c>
     </row>
-    <row r="110" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>143</v>
       </c>
@@ -14176,7 +14182,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="111" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>144</v>
       </c>
@@ -14283,7 +14289,7 @@
         <v>1557</v>
       </c>
     </row>
-    <row r="112" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>145</v>
       </c>
@@ -14390,7 +14396,7 @@
         <v>1739</v>
       </c>
     </row>
-    <row r="113" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>146</v>
       </c>
@@ -14497,7 +14503,7 @@
         <v>2316</v>
       </c>
     </row>
-    <row r="114" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>147</v>
       </c>
@@ -14604,7 +14610,7 @@
         <v>1907</v>
       </c>
     </row>
-    <row r="115" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>148</v>
       </c>
@@ -14711,7 +14717,7 @@
         <v>2254</v>
       </c>
     </row>
-    <row r="116" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>149</v>
       </c>
@@ -14818,7 +14824,7 @@
         <v>2419</v>
       </c>
     </row>
-    <row r="117" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>150</v>
       </c>
@@ -14925,7 +14931,7 @@
         <v>3560</v>
       </c>
     </row>
-    <row r="118" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>151</v>
       </c>
@@ -15032,7 +15038,7 @@
         <v>3327</v>
       </c>
     </row>
-    <row r="119" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>152</v>
       </c>
@@ -15139,7 +15145,7 @@
         <v>3349</v>
       </c>
     </row>
-    <row r="120" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>153</v>
       </c>
@@ -15246,7 +15252,7 @@
         <v>3142</v>
       </c>
     </row>
-    <row r="121" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>154</v>
       </c>
@@ -15353,7 +15359,7 @@
         <v>4188</v>
       </c>
     </row>
-    <row r="122" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>155</v>
       </c>
@@ -15460,7 +15466,7 @@
         <v>4105</v>
       </c>
     </row>
-    <row r="123" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>156</v>
       </c>
@@ -15567,7 +15573,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="124" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>157</v>
       </c>
@@ -15674,7 +15680,7 @@
         <v>3021</v>
       </c>
     </row>
-    <row r="125" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>158</v>
       </c>
@@ -15781,7 +15787,7 @@
         <v>3653</v>
       </c>
     </row>
-    <row r="126" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>159</v>
       </c>
@@ -15888,7 +15894,7 @@
         <v>3272</v>
       </c>
     </row>
-    <row r="127" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>160</v>
       </c>
@@ -15995,7 +16001,7 @@
         <v>3199</v>
       </c>
     </row>
-    <row r="128" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>161</v>
       </c>
@@ -16102,7 +16108,7 @@
         <v>3542</v>
       </c>
     </row>
-    <row r="129" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>162</v>
       </c>
@@ -16209,7 +16215,7 @@
         <v>4702</v>
       </c>
     </row>
-    <row r="130" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>163</v>
       </c>
@@ -16316,7 +16322,7 @@
         <v>3997</v>
       </c>
     </row>
-    <row r="131" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>164</v>
       </c>
@@ -16423,7 +16429,7 @@
         <v>4182</v>
       </c>
     </row>
-    <row r="132" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>165</v>
       </c>
@@ -16530,7 +16536,7 @@
         <v>4591</v>
       </c>
     </row>
-    <row r="133" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>166</v>
       </c>
@@ -16637,7 +16643,7 @@
         <v>5322</v>
       </c>
     </row>
-    <row r="134" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>167</v>
       </c>
@@ -16744,7 +16750,7 @@
         <v>5111</v>
       </c>
     </row>
-    <row r="135" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>168</v>
       </c>
@@ -16851,7 +16857,7 @@
         <v>3498</v>
       </c>
     </row>
-    <row r="136" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>169</v>
       </c>
@@ -16958,7 +16964,7 @@
         <v>4742</v>
       </c>
     </row>
-    <row r="137" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>170</v>
       </c>
@@ -17065,7 +17071,7 @@
         <v>3918</v>
       </c>
     </row>
-    <row r="138" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>171</v>
       </c>
@@ -17172,7 +17178,7 @@
         <v>4484</v>
       </c>
     </row>
-    <row r="139" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>172</v>
       </c>
@@ -17279,7 +17285,7 @@
         <v>3688</v>
       </c>
     </row>
-    <row r="140" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>173</v>
       </c>
@@ -17386,7 +17392,7 @@
         <v>4028</v>
       </c>
     </row>
-    <row r="141" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>174</v>
       </c>
@@ -17493,7 +17499,7 @@
         <v>5575</v>
       </c>
     </row>
-    <row r="142" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>175</v>
       </c>
@@ -17600,7 +17606,7 @@
         <v>4487</v>
       </c>
     </row>
-    <row r="143" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>176</v>
       </c>
@@ -17707,7 +17713,7 @@
         <v>4695</v>
       </c>
     </row>
-    <row r="144" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>177</v>
       </c>
@@ -17814,7 +17820,7 @@
         <v>4831</v>
       </c>
     </row>
-    <row r="145" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>178</v>
       </c>
@@ -17921,7 +17927,7 @@
         <v>5895</v>
       </c>
     </row>
-    <row r="146" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>179</v>
       </c>
@@ -18028,7 +18034,7 @@
         <v>4921</v>
       </c>
     </row>
-    <row r="147" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>180</v>
       </c>
@@ -18135,7 +18141,7 @@
         <v>3644</v>
       </c>
     </row>
-    <row r="148" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>181</v>
       </c>
@@ -18242,7 +18248,7 @@
         <v>4089</v>
       </c>
     </row>
-    <row r="149" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>182</v>
       </c>
@@ -18349,7 +18355,7 @@
         <v>4188</v>
       </c>
     </row>
-    <row r="150" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>183</v>
       </c>
@@ -18456,7 +18462,7 @@
         <v>4332</v>
       </c>
     </row>
-    <row r="151" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>184</v>
       </c>
@@ -18563,7 +18569,7 @@
         <v>3611</v>
       </c>
     </row>
-    <row r="152" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>185</v>
       </c>
@@ -18670,7 +18676,7 @@
         <v>3962</v>
       </c>
     </row>
-    <row r="153" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>186</v>
       </c>
@@ -18777,7 +18783,7 @@
         <v>5360</v>
       </c>
     </row>
-    <row r="154" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>187</v>
       </c>
@@ -18884,7 +18890,7 @@
         <v>4861</v>
       </c>
     </row>
-    <row r="155" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>188</v>
       </c>
@@ -18991,7 +18997,7 @@
         <v>5034</v>
       </c>
     </row>
-    <row r="156" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>189</v>
       </c>
@@ -19098,7 +19104,7 @@
         <v>5597</v>
       </c>
     </row>
-    <row r="157" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>190</v>
       </c>
@@ -19205,7 +19211,7 @@
         <v>6598</v>
       </c>
     </row>
-    <row r="158" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>191</v>
       </c>
@@ -19312,7 +19318,7 @@
         <v>5389</v>
       </c>
     </row>
-    <row r="159" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>192</v>
       </c>
@@ -19419,7 +19425,7 @@
         <v>3194</v>
       </c>
     </row>
-    <row r="160" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>193</v>
       </c>
@@ -19526,7 +19532,7 @@
         <v>4192</v>
       </c>
     </row>
-    <row r="161" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>194</v>
       </c>
@@ -19633,7 +19639,7 @@
         <v>4442</v>
       </c>
     </row>
-    <row r="162" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>195</v>
       </c>
@@ -19740,7 +19746,7 @@
         <v>4450</v>
       </c>
     </row>
-    <row r="163" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>196</v>
       </c>
@@ -19847,7 +19853,7 @@
         <v>3832</v>
       </c>
     </row>
-    <row r="164" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>197</v>
       </c>
@@ -19954,7 +19960,7 @@
         <v>4616</v>
       </c>
     </row>
-    <row r="165" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>198</v>
       </c>
@@ -20061,7 +20067,7 @@
         <v>4926</v>
       </c>
     </row>
-    <row r="166" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>199</v>
       </c>
@@ -20168,7 +20174,7 @@
         <v>4437</v>
       </c>
     </row>
-    <row r="167" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>200</v>
       </c>
@@ -20275,7 +20281,7 @@
         <v>5181</v>
       </c>
     </row>
-    <row r="168" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>201</v>
       </c>
@@ -20382,7 +20388,7 @@
         <v>4770</v>
       </c>
     </row>
-    <row r="169" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>202</v>
       </c>
@@ -20489,7 +20495,7 @@
         <v>6297</v>
       </c>
     </row>
-    <row r="170" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>203</v>
       </c>
@@ -20596,7 +20602,7 @@
         <v>5568</v>
       </c>
     </row>
-    <row r="171" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>204</v>
       </c>
@@ -20703,7 +20709,7 @@
         <v>4272</v>
       </c>
     </row>
-    <row r="172" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>205</v>
       </c>
@@ -20810,7 +20816,7 @@
         <v>3810</v>
       </c>
     </row>
-    <row r="173" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>206</v>
       </c>
@@ -20917,7 +20923,7 @@
         <v>5596</v>
       </c>
     </row>
-    <row r="174" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>207</v>
       </c>
@@ -21024,7 +21030,7 @@
         <v>4644</v>
       </c>
     </row>
-    <row r="175" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>208</v>
       </c>
@@ -21131,7 +21137,7 @@
         <v>4380</v>
       </c>
     </row>
-    <row r="176" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>209</v>
       </c>
@@ -21238,7 +21244,7 @@
         <v>5363</v>
       </c>
     </row>
-    <row r="177" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>210</v>
       </c>
@@ -21345,7 +21351,7 @@
         <v>6248</v>
       </c>
     </row>
-    <row r="178" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>211</v>
       </c>
@@ -21452,7 +21458,7 @@
         <v>6178</v>
       </c>
     </row>
-    <row r="179" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>212</v>
       </c>
@@ -21559,7 +21565,7 @@
         <v>6906</v>
       </c>
     </row>
-    <row r="180" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>213</v>
       </c>
@@ -21666,7 +21672,7 @@
         <v>7524</v>
       </c>
     </row>
-    <row r="181" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>214</v>
       </c>
@@ -21773,7 +21779,7 @@
         <v>9197</v>
       </c>
     </row>
-    <row r="182" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>215</v>
       </c>
@@ -21880,7 +21886,7 @@
         <v>7817</v>
       </c>
     </row>
-    <row r="183" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>216</v>
       </c>
@@ -21987,7 +21993,7 @@
         <v>5615</v>
       </c>
     </row>
-    <row r="184" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>217</v>
       </c>
@@ -22094,7 +22100,7 @@
         <v>6243</v>
       </c>
     </row>
-    <row r="185" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>218</v>
       </c>
@@ -22201,7 +22207,7 @@
         <v>8079</v>
       </c>
     </row>
-    <row r="186" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>219</v>
       </c>
@@ -22308,7 +22314,7 @@
         <v>6925</v>
       </c>
     </row>
-    <row r="187" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>220</v>
       </c>
@@ -22415,7 +22421,7 @@
         <v>8442</v>
       </c>
     </row>
-    <row r="188" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>221</v>
       </c>
@@ -22522,7 +22528,7 @@
         <v>8290</v>
       </c>
     </row>
-    <row r="189" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>222</v>
       </c>
@@ -22629,7 +22635,7 @@
         <v>8350</v>
       </c>
     </row>
-    <row r="190" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>223</v>
       </c>
@@ -22736,7 +22742,7 @@
         <v>8967</v>
       </c>
     </row>
-    <row r="191" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>224</v>
       </c>
@@ -22843,7 +22849,7 @@
         <v>9500</v>
       </c>
     </row>
-    <row r="192" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>225</v>
       </c>
@@ -22950,7 +22956,7 @@
         <v>8150</v>
       </c>
     </row>
-    <row r="193" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>226</v>
       </c>
@@ -23057,7 +23063,7 @@
         <v>11250</v>
       </c>
     </row>
-    <row r="194" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>227</v>
       </c>
@@ -23164,7 +23170,7 @@
         <v>10237</v>
       </c>
     </row>
-    <row r="195" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>228</v>
       </c>
@@ -23271,7 +23277,7 @@
         <v>5640</v>
       </c>
     </row>
-    <row r="196" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>229</v>
       </c>
@@ -23378,7 +23384,7 @@
         <v>8913</v>
       </c>
     </row>
-    <row r="197" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>230</v>
       </c>
@@ -23485,7 +23491,7 @@
         <v>9369</v>
       </c>
     </row>
-    <row r="198" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>231</v>
       </c>
@@ -23592,7 +23598,7 @@
         <v>6117</v>
       </c>
     </row>
-    <row r="199" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>232</v>
       </c>
@@ -23699,7 +23705,7 @@
         <v>6622</v>
       </c>
     </row>
-    <row r="200" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>233</v>
       </c>
@@ -23806,7 +23812,7 @@
         <v>9268</v>
       </c>
     </row>
-    <row r="201" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>234</v>
       </c>
@@ -23913,7 +23919,7 @@
         <v>8370</v>
       </c>
     </row>
-    <row r="202" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>235</v>
       </c>
@@ -24020,7 +24026,7 @@
         <v>8227</v>
       </c>
     </row>
-    <row r="203" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>236</v>
       </c>
@@ -24127,7 +24133,7 @@
         <v>9669</v>
       </c>
     </row>
-    <row r="204" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>237</v>
       </c>
@@ -24234,7 +24240,7 @@
         <v>7879</v>
       </c>
     </row>
-    <row r="205" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>238</v>
       </c>
@@ -24341,7 +24347,7 @@
         <v>10381</v>
       </c>
     </row>
-    <row r="206" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>239</v>
       </c>
@@ -24448,7 +24454,7 @@
         <v>9252</v>
       </c>
     </row>
-    <row r="207" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>240</v>
       </c>
@@ -24555,7 +24561,7 @@
         <v>5290</v>
       </c>
     </row>
-    <row r="208" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>241</v>
       </c>
@@ -24662,7 +24668,7 @@
         <v>7011</v>
       </c>
     </row>
-    <row r="209" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>242</v>
       </c>
@@ -24769,7 +24775,7 @@
         <v>8242</v>
       </c>
     </row>
-    <row r="210" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>243</v>
       </c>
@@ -24876,7 +24882,7 @@
         <v>6059</v>
       </c>
     </row>
-    <row r="211" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>244</v>
       </c>
@@ -24983,7 +24989,7 @@
         <v>5622</v>
       </c>
     </row>
-    <row r="212" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>245</v>
       </c>
@@ -25090,7 +25096,7 @@
         <v>7087</v>
       </c>
     </row>
-    <row r="213" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>246</v>
       </c>
@@ -25197,7 +25203,7 @@
         <v>6973</v>
       </c>
     </row>
-    <row r="214" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>247</v>
       </c>
@@ -25304,7 +25310,7 @@
         <v>7163</v>
       </c>
     </row>
-    <row r="215" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>248</v>
       </c>
@@ -25411,7 +25417,7 @@
         <v>7153</v>
       </c>
     </row>
-    <row r="216" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>249</v>
       </c>
@@ -25518,7 +25524,7 @@
         <v>7199</v>
       </c>
     </row>
-    <row r="217" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>250</v>
       </c>
@@ -25625,7 +25631,7 @@
         <v>9880</v>
       </c>
     </row>
-    <row r="218" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>251</v>
       </c>
@@ -25732,7 +25738,7 @@
         <v>8365</v>
       </c>
     </row>
-    <row r="219" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>252</v>
       </c>
@@ -25839,7 +25845,7 @@
         <v>4445</v>
       </c>
     </row>
-    <row r="220" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>253</v>
       </c>
@@ -25946,7 +25952,7 @@
         <v>6954</v>
       </c>
     </row>
-    <row r="221" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>254</v>
       </c>
@@ -26053,7 +26059,7 @@
         <v>7386</v>
       </c>
     </row>
-    <row r="222" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>255</v>
       </c>
@@ -26160,7 +26166,7 @@
         <v>5698</v>
       </c>
     </row>
-    <row r="223" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>256</v>
       </c>
@@ -26267,7 +26273,7 @@
         <v>5407</v>
       </c>
     </row>
-    <row r="224" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>257</v>
       </c>
@@ -26374,7 +26380,7 @@
         <v>6512</v>
       </c>
     </row>
-    <row r="225" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>258</v>
       </c>
@@ -26481,7 +26487,7 @@
         <v>6389</v>
       </c>
     </row>
-    <row r="226" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>259</v>
       </c>
@@ -26588,7 +26594,7 @@
         <v>6736</v>
       </c>
     </row>
-    <row r="227" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>260</v>
       </c>
@@ -26695,7 +26701,7 @@
         <v>6875</v>
       </c>
     </row>
-    <row r="228" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>261</v>
       </c>
@@ -26802,7 +26808,7 @@
         <v>5969</v>
       </c>
     </row>
-    <row r="229" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>262</v>
       </c>
@@ -26909,7 +26915,7 @@
         <v>8880</v>
       </c>
     </row>
-    <row r="230" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>263</v>
       </c>
@@ -27016,7 +27022,7 @@
         <v>6728</v>
       </c>
     </row>
-    <row r="231" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>264</v>
       </c>
@@ -27123,7 +27129,7 @@
         <v>4156</v>
       </c>
     </row>
-    <row r="232" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>265</v>
       </c>
@@ -27230,7 +27236,7 @@
         <v>6657</v>
       </c>
     </row>
-    <row r="233" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>266</v>
       </c>
@@ -27337,7 +27343,7 @@
         <v>5762</v>
       </c>
     </row>
-    <row r="234" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>267</v>
       </c>
@@ -27444,7 +27450,7 @@
         <v>4823</v>
       </c>
     </row>
-    <row r="235" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>268</v>
       </c>
@@ -27551,7 +27557,7 @@
         <v>4907</v>
       </c>
     </row>
-    <row r="236" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>269</v>
       </c>
@@ -27658,7 +27664,7 @@
         <v>6263</v>
       </c>
     </row>
-    <row r="237" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>270</v>
       </c>
@@ -27765,7 +27771,7 @@
         <v>5906</v>
       </c>
     </row>
-    <row r="238" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>271</v>
       </c>
@@ -27872,7 +27878,7 @@
         <v>5930</v>
       </c>
     </row>
-    <row r="239" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>272</v>
       </c>
@@ -27979,7 +27985,7 @@
         <v>5566</v>
       </c>
     </row>
-    <row r="240" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>273</v>
       </c>
@@ -28086,7 +28092,7 @@
         <v>5677</v>
       </c>
     </row>
-    <row r="241" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>274</v>
       </c>
@@ -28193,7 +28199,7 @@
         <v>8242</v>
       </c>
     </row>
-    <row r="242" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>275</v>
       </c>
@@ -28300,7 +28306,7 @@
         <v>6833</v>
       </c>
     </row>
-    <row r="243" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>276</v>
       </c>
@@ -28407,7 +28413,7 @@
         <v>5158</v>
       </c>
     </row>
-    <row r="244" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>277</v>
       </c>
@@ -28514,7 +28520,7 @@
         <v>6457</v>
       </c>
     </row>
-    <row r="245" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>278</v>
       </c>
@@ -28621,7 +28627,7 @@
         <v>7114</v>
       </c>
     </row>
-    <row r="246" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>279</v>
       </c>
@@ -28728,7 +28734,7 @@
         <v>5187</v>
       </c>
     </row>
-    <row r="247" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>280</v>
       </c>
@@ -28835,7 +28841,7 @@
         <v>5534</v>
       </c>
     </row>
-    <row r="248" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>281</v>
       </c>
@@ -28942,7 +28948,7 @@
         <v>6896</v>
       </c>
     </row>
-    <row r="249" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>282</v>
       </c>
@@ -29049,7 +29055,7 @@
         <v>7239</v>
       </c>
     </row>
-    <row r="250" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>283</v>
       </c>
@@ -29156,7 +29162,7 @@
         <v>6101</v>
       </c>
     </row>
-    <row r="251" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>284</v>
       </c>
@@ -29263,7 +29269,7 @@
         <v>6554</v>
       </c>
     </row>
-    <row r="252" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>285</v>
       </c>
@@ -29370,7 +29376,7 @@
         <v>7123</v>
       </c>
     </row>
-    <row r="253" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>286</v>
       </c>
@@ -29477,7 +29483,7 @@
         <v>8943</v>
       </c>
     </row>
-    <row r="254" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>287</v>
       </c>
@@ -29584,7 +29590,7 @@
         <v>7368</v>
       </c>
     </row>
-    <row r="255" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>288</v>
       </c>
@@ -29691,7 +29697,7 @@
         <v>5741</v>
       </c>
     </row>
-    <row r="256" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>289</v>
       </c>
@@ -29798,7 +29804,7 @@
         <v>7785</v>
       </c>
     </row>
-    <row r="257" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>290</v>
       </c>
@@ -29905,7 +29911,7 @@
         <v>7963</v>
       </c>
     </row>
-    <row r="258" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>291</v>
       </c>
@@ -30012,7 +30018,7 @@
         <v>5892</v>
       </c>
     </row>
-    <row r="259" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>292</v>
       </c>
@@ -30119,7 +30125,7 @@
         <v>6891</v>
       </c>
     </row>
-    <row r="260" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>293</v>
       </c>
@@ -30226,7 +30232,7 @@
         <v>8017</v>
       </c>
     </row>
-    <row r="261" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>294</v>
       </c>
@@ -30333,7 +30339,7 @@
         <v>8258</v>
       </c>
     </row>
-    <row r="262" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>295</v>
       </c>
@@ -30440,7 +30446,7 @@
         <v>7625</v>
       </c>
     </row>
-    <row r="263" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>296</v>
       </c>
@@ -30547,7 +30553,7 @@
         <v>8041</v>
       </c>
     </row>
-    <row r="264" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>297</v>
       </c>
@@ -30654,7 +30660,7 @@
         <v>7575</v>
       </c>
     </row>
-    <row r="265" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>298</v>
       </c>
@@ -30761,7 +30767,7 @@
         <v>9001</v>
       </c>
     </row>
-    <row r="266" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>299</v>
       </c>
@@ -30868,7 +30874,7 @@
         <v>7756</v>
       </c>
     </row>
-    <row r="267" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>300</v>
       </c>
@@ -30975,7 +30981,7 @@
         <v>6035</v>
       </c>
     </row>
-    <row r="268" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>301</v>
       </c>
@@ -31082,7 +31088,7 @@
         <v>8769</v>
       </c>
     </row>
-    <row r="269" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>302</v>
       </c>
@@ -31189,7 +31195,7 @@
         <v>10398</v>
       </c>
     </row>
-    <row r="270" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>303</v>
       </c>
@@ -31296,7 +31302,7 @@
         <v>7569</v>
       </c>
     </row>
-    <row r="271" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>304</v>
       </c>
@@ -31403,7 +31409,7 @@
         <v>7508</v>
       </c>
     </row>
-    <row r="272" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>305</v>
       </c>
@@ -31510,7 +31516,7 @@
         <v>9129</v>
       </c>
     </row>
-    <row r="273" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>306</v>
       </c>
@@ -31617,7 +31623,7 @@
         <v>9017</v>
       </c>
     </row>
-    <row r="274" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>307</v>
       </c>
@@ -31724,7 +31730,7 @@
         <v>7297</v>
       </c>
     </row>
-    <row r="275" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>308</v>
       </c>
@@ -31831,7 +31837,7 @@
         <v>8342</v>
       </c>
     </row>
-    <row r="276" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>309</v>
       </c>
@@ -31938,7 +31944,7 @@
         <v>8156</v>
       </c>
     </row>
-    <row r="277" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>310</v>
       </c>
@@ -32045,7 +32051,7 @@
         <v>9532</v>
       </c>
     </row>
-    <row r="278" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>311</v>
       </c>
@@ -32152,7 +32158,7 @@
         <v>8385</v>
       </c>
     </row>
-    <row r="279" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>312</v>
       </c>
@@ -32259,7 +32265,7 @@
         <v>6135</v>
       </c>
     </row>
-    <row r="280" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>313</v>
       </c>
@@ -32366,7 +32372,7 @@
         <v>7786</v>
       </c>
     </row>
-    <row r="281" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>314</v>
       </c>
@@ -32473,7 +32479,7 @@
         <v>8756</v>
       </c>
     </row>
-    <row r="282" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>315</v>
       </c>
@@ -32580,7 +32586,7 @@
         <v>6740</v>
       </c>
     </row>
-    <row r="283" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>316</v>
       </c>
@@ -32687,7 +32693,7 @@
         <v>6178</v>
       </c>
     </row>
-    <row r="284" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>317</v>
       </c>
@@ -32794,7 +32800,7 @@
         <v>8608</v>
       </c>
     </row>
-    <row r="285" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>318</v>
       </c>
@@ -32901,7 +32907,7 @@
         <v>7834</v>
       </c>
     </row>
-    <row r="286" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>319</v>
       </c>
@@ -33008,7 +33014,7 @@
         <v>7447</v>
       </c>
     </row>
-    <row r="287" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>320</v>
       </c>
@@ -33115,7 +33121,7 @@
         <v>6641</v>
       </c>
     </row>
-    <row r="288" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>321</v>
       </c>
@@ -33222,7 +33228,7 @@
         <v>5580</v>
       </c>
     </row>
-    <row r="289" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>322</v>
       </c>
@@ -33329,7 +33335,7 @@
         <v>7899</v>
       </c>
     </row>
-    <row r="290" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>323</v>
       </c>
@@ -33436,7 +33442,7 @@
         <v>6586</v>
       </c>
     </row>
-    <row r="291" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>324</v>
       </c>
@@ -33543,7 +33549,7 @@
         <v>4302</v>
       </c>
     </row>
-    <row r="292" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>325</v>
       </c>
@@ -33650,7 +33656,7 @@
         <v>6658</v>
       </c>
     </row>
-    <row r="293" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>326</v>
       </c>
@@ -33757,7 +33763,7 @@
         <v>6248</v>
       </c>
     </row>
-    <row r="294" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>327</v>
       </c>
@@ -33864,7 +33870,7 @@
         <v>5139</v>
       </c>
     </row>
-    <row r="295" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>328</v>
       </c>
@@ -33971,7 +33977,7 @@
         <v>5965</v>
       </c>
     </row>
-    <row r="296" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>329</v>
       </c>
@@ -34078,7 +34084,7 @@
         <v>6649</v>
       </c>
     </row>
-    <row r="297" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>330</v>
       </c>
@@ -34185,7 +34191,7 @@
         <v>6541</v>
       </c>
     </row>
-    <row r="298" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>331</v>
       </c>
@@ -34292,7 +34298,7 @@
         <v>5862</v>
       </c>
     </row>
-    <row r="299" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>332</v>
       </c>
@@ -34399,7 +34405,7 @@
         <v>6067</v>
       </c>
     </row>
-    <row r="300" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>333</v>
       </c>
@@ -34506,7 +34512,7 @@
         <v>5150</v>
       </c>
     </row>
-    <row r="301" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>334</v>
       </c>
@@ -34613,7 +34619,7 @@
         <v>7666</v>
       </c>
     </row>
-    <row r="302" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>335</v>
       </c>
@@ -34720,7 +34726,7 @@
         <v>6806</v>
       </c>
     </row>
-    <row r="303" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>336</v>
       </c>
@@ -34827,7 +34833,7 @@
         <v>4938</v>
       </c>
     </row>
-    <row r="304" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>337</v>
       </c>
@@ -34934,7 +34940,7 @@
         <v>5593</v>
       </c>
     </row>
-    <row r="305" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>338</v>
       </c>
@@ -35041,7 +35047,7 @@
         <v>2228</v>
       </c>
     </row>
-    <row r="306" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>339</v>
       </c>
@@ -35148,7 +35154,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="307" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>340</v>
       </c>
@@ -35255,7 +35261,7 @@
         <v>2380</v>
       </c>
     </row>
-    <row r="308" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
         <v>341</v>
       </c>
@@ -35362,7 +35368,7 @@
         <v>5073</v>
       </c>
     </row>
-    <row r="309" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>342</v>
       </c>
@@ -35469,7 +35475,7 @@
         <v>7009</v>
       </c>
     </row>
-    <row r="310" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
         <v>343</v>
       </c>
@@ -35576,7 +35582,7 @@
         <v>4759</v>
       </c>
     </row>
-    <row r="311" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
         <v>344</v>
       </c>
@@ -35683,7 +35689,7 @@
         <v>5490</v>
       </c>
     </row>
-    <row r="312" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
         <v>345</v>
       </c>
@@ -35790,7 +35796,7 @@
         <v>5065</v>
       </c>
     </row>
-    <row r="313" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
         <v>346</v>
       </c>
@@ -35897,7 +35903,7 @@
         <v>7544</v>
       </c>
     </row>
-    <row r="314" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
         <v>347</v>
       </c>
@@ -36004,7 +36010,7 @@
         <v>5793</v>
       </c>
     </row>
-    <row r="315" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
         <v>348</v>
       </c>
@@ -36111,7 +36117,7 @@
         <v>4371</v>
       </c>
     </row>
-    <row r="316" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
         <v>349</v>
       </c>
@@ -36218,7 +36224,7 @@
         <v>6105</v>
       </c>
     </row>
-    <row r="317" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
         <v>350</v>
       </c>
@@ -36325,7 +36331,7 @@
         <v>5839</v>
       </c>
     </row>
-    <row r="318" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
         <v>351</v>
       </c>
@@ -36432,7 +36438,7 @@
         <v>4734</v>
       </c>
     </row>
-    <row r="319" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
         <v>352</v>
       </c>
@@ -36539,7 +36545,7 @@
         <v>5064</v>
       </c>
     </row>
-    <row r="320" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
         <v>353</v>
       </c>
@@ -36646,7 +36652,7 @@
         <v>7394</v>
       </c>
     </row>
-    <row r="321" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
         <v>354</v>
       </c>
@@ -36753,7 +36759,7 @@
         <v>6955</v>
       </c>
     </row>
-    <row r="322" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
         <v>355</v>
       </c>
@@ -36860,7 +36866,7 @@
         <v>6005</v>
       </c>
     </row>
-    <row r="323" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
         <v>356</v>
       </c>
@@ -36967,7 +36973,7 @@
         <v>5789</v>
       </c>
     </row>
-    <row r="324" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
         <v>357</v>
       </c>
@@ -37074,7 +37080,7 @@
         <v>5823</v>
       </c>
     </row>
-    <row r="325" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
         <v>358</v>
       </c>
@@ -37181,7 +37187,7 @@
         <v>10004</v>
       </c>
     </row>
-    <row r="326" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
         <v>359</v>
       </c>
@@ -37288,7 +37294,7 @@
         <v>6931</v>
       </c>
     </row>
-    <row r="327" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
         <v>360</v>
       </c>
@@ -37395,7 +37401,7 @@
         <v>4675</v>
       </c>
     </row>
-    <row r="328" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
         <v>361</v>
       </c>
@@ -37502,7 +37508,7 @@
         <v>7150</v>
       </c>
     </row>
-    <row r="329" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
         <v>362</v>
       </c>
@@ -37609,7 +37615,7 @@
         <v>7205</v>
       </c>
     </row>
-    <row r="330" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
         <v>363</v>
       </c>
@@ -37716,7 +37722,7 @@
         <v>5759</v>
       </c>
     </row>
-    <row r="331" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
         <v>364</v>
       </c>
@@ -37823,7 +37829,7 @@
         <v>6489</v>
       </c>
     </row>
-    <row r="332" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
         <v>365</v>
       </c>
@@ -37930,7 +37936,7 @@
         <v>7538</v>
       </c>
     </row>
-    <row r="333" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
         <v>366</v>
       </c>
@@ -38037,7 +38043,7 @@
         <v>7138</v>
       </c>
     </row>
-    <row r="334" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
         <v>367</v>
       </c>
@@ -38144,7 +38150,7 @@
         <v>6693</v>
       </c>
     </row>
-    <row r="335" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
         <v>368</v>
       </c>
@@ -38251,7 +38257,7 @@
         <v>5853</v>
       </c>
     </row>
-    <row r="336" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
         <v>369</v>
       </c>
@@ -38358,7 +38364,7 @@
         <v>6741</v>
       </c>
     </row>
-    <row r="337" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
         <v>370</v>
       </c>
@@ -38465,7 +38471,7 @@
         <v>9780</v>
       </c>
     </row>
-    <row r="338" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
         <v>371</v>
       </c>
@@ -38572,7 +38578,7 @@
         <v>7294</v>
       </c>
     </row>
-    <row r="339" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
         <v>372</v>
       </c>
@@ -38679,7 +38685,7 @@
         <v>5405</v>
       </c>
     </row>
-    <row r="340" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
         <v>373</v>
       </c>
@@ -38786,7 +38792,7 @@
         <v>7210</v>
       </c>
     </row>
-    <row r="341" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
         <v>374</v>
       </c>
@@ -38893,7 +38899,7 @@
         <v>8729</v>
       </c>
     </row>
-    <row r="342" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
         <v>375</v>
       </c>
@@ -39000,7 +39006,7 @@
         <v>6443</v>
       </c>
     </row>
-    <row r="343" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
         <v>376</v>
       </c>
@@ -39107,7 +39113,7 @@
         <v>6245</v>
       </c>
     </row>
-    <row r="344" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
         <v>377</v>
       </c>
@@ -39214,7 +39220,7 @@
         <v>8708</v>
       </c>
     </row>
-    <row r="345" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
         <v>378</v>
       </c>
@@ -39321,7 +39327,7 @@
         <v>7965</v>
       </c>
     </row>
-    <row r="346" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
         <v>379</v>
       </c>
@@ -39428,7 +39434,7 @@
         <v>7011</v>
       </c>
     </row>
-    <row r="347" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
         <v>380</v>
       </c>
@@ -39535,7 +39541,7 @@
         <v>6607</v>
       </c>
     </row>
-    <row r="348" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
         <v>381</v>
       </c>
@@ -39642,7 +39648,7 @@
         <v>7601</v>
       </c>
     </row>
-    <row r="349" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
         <v>382</v>
       </c>
@@ -39749,7 +39755,7 @@
         <v>11296</v>
       </c>
     </row>
-    <row r="350" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
         <v>383</v>
       </c>
@@ -39856,7 +39862,7 @@
         <v>8981</v>
       </c>
     </row>
-    <row r="351" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
         <v>384</v>
       </c>
@@ -39963,7 +39969,7 @@
         <v>5005</v>
       </c>
     </row>
-    <row r="352" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
         <v>385</v>
       </c>
@@ -40070,7 +40076,7 @@
         <v>8405</v>
       </c>
     </row>
-    <row r="353" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
         <v>386</v>
       </c>
@@ -40177,7 +40183,7 @@
         <v>9707</v>
       </c>
     </row>
-    <row r="354" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
         <v>387</v>
       </c>
@@ -40284,7 +40290,7 @@
         <v>6817</v>
       </c>
     </row>
-    <row r="355" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
         <v>388</v>
       </c>
@@ -40391,7 +40397,7 @@
         <v>7065</v>
       </c>
     </row>
-    <row r="356" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
         <v>389</v>
       </c>
@@ -40498,7 +40504,7 @@
         <v>9358</v>
       </c>
     </row>
-    <row r="357" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
         <v>390</v>
       </c>
@@ -40605,7 +40611,7 @@
         <v>9075</v>
       </c>
     </row>
-    <row r="358" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
         <v>391</v>
       </c>
@@ -40712,7 +40718,7 @@
         <v>6829</v>
       </c>
     </row>
-    <row r="359" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
         <v>392</v>
       </c>
@@ -40819,7 +40825,7 @@
         <v>7960</v>
       </c>
     </row>
-    <row r="360" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
         <v>393</v>
       </c>
@@ -40926,7 +40932,7 @@
         <v>6794</v>
       </c>
     </row>
-    <row r="361" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
         <v>394</v>
       </c>
@@ -41033,7 +41039,7 @@
         <v>12792</v>
       </c>
     </row>
-    <row r="362" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
         <v>395</v>
       </c>
@@ -41140,7 +41146,7 @@
         <v>9515</v>
       </c>
     </row>
-    <row r="363" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
         <v>396</v>
       </c>
@@ -41247,7 +41253,7 @@
         <v>5032</v>
       </c>
     </row>
-    <row r="364" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
         <v>397</v>
       </c>
@@ -41354,7 +41360,7 @@
         <v>7743</v>
       </c>
     </row>
-    <row r="365" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
         <v>398</v>
       </c>
@@ -41461,7 +41467,7 @@
         <v>7913</v>
       </c>
     </row>
-    <row r="366" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A366" t="s">
         <v>399</v>
       </c>
@@ -41568,7 +41574,7 @@
         <v>5917</v>
       </c>
     </row>
-    <row r="367" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A367" t="s">
         <v>400</v>
       </c>
@@ -41675,7 +41681,7 @@
         <v>6437</v>
       </c>
     </row>
-    <row r="368" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A368" t="s">
         <v>401</v>
       </c>
@@ -41782,7 +41788,7 @@
         <v>8306</v>
       </c>
     </row>
-    <row r="369" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A369" t="s">
         <v>402</v>
       </c>
@@ -41889,7 +41895,7 @@
         <v>8739</v>
       </c>
     </row>
-    <row r="370" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A370" t="s">
         <v>403</v>
       </c>
@@ -41996,7 +42002,7 @@
         <v>6019</v>
       </c>
     </row>
-    <row r="371" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A371" t="s">
         <v>404</v>
       </c>
@@ -42103,7 +42109,7 @@
         <v>7882</v>
       </c>
     </row>
-    <row r="372" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A372" t="s">
         <v>405</v>
       </c>
@@ -42210,7 +42216,7 @@
         <v>6494</v>
       </c>
     </row>
-    <row r="373" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A373" t="s">
         <v>406</v>
       </c>
@@ -42317,7 +42323,7 @@
         <v>10634</v>
       </c>
     </row>
-    <row r="374" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A374" t="s">
         <v>407</v>
       </c>
@@ -42424,7 +42430,7 @@
         <v>6879</v>
       </c>
     </row>
-    <row r="375" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A375" t="s">
         <v>408</v>
       </c>
@@ -42531,7 +42537,7 @@
         <v>4454</v>
       </c>
     </row>
-    <row r="376" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A376" t="s">
         <v>409</v>
       </c>
@@ -42638,7 +42644,7 @@
         <v>5577</v>
       </c>
     </row>
-    <row r="377" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A377" t="s">
         <v>410</v>
       </c>
@@ -42745,7 +42751,7 @@
         <v>6056</v>
       </c>
     </row>
-    <row r="378" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A378" t="s">
         <v>411</v>
       </c>
@@ -42852,7 +42858,7 @@
         <v>5020</v>
       </c>
     </row>
-    <row r="379" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A379" t="s">
         <v>412</v>
       </c>
@@ -42959,7 +42965,7 @@
         <v>5633</v>
       </c>
     </row>
-    <row r="380" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A380" t="s">
         <v>413</v>
       </c>
@@ -43066,7 +43072,7 @@
         <v>7372</v>
       </c>
     </row>
-    <row r="381" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A381" t="s">
         <v>414</v>
       </c>
@@ -43173,7 +43179,7 @@
         <v>6806</v>
       </c>
     </row>
-    <row r="382" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A382" t="s">
         <v>415</v>
       </c>
@@ -43280,7 +43286,7 @@
         <v>5116</v>
       </c>
     </row>
-    <row r="383" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A383" t="s">
         <v>416</v>
       </c>
@@ -43387,7 +43393,7 @@
         <v>6708</v>
       </c>
     </row>
-    <row r="384" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A384" t="s">
         <v>417</v>
       </c>
@@ -43494,7 +43500,7 @@
         <v>6258</v>
       </c>
     </row>
-    <row r="385" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A385" t="s">
         <v>418</v>
       </c>
@@ -43601,7 +43607,7 @@
         <v>10514</v>
       </c>
     </row>
-    <row r="386" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A386" t="s">
         <v>419</v>
       </c>
@@ -43708,7 +43714,7 @@
         <v>7373</v>
       </c>
     </row>
-    <row r="387" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A387" t="s">
         <v>420</v>
       </c>
@@ -43815,7 +43821,7 @@
         <v>4442</v>
       </c>
     </row>
-    <row r="388" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A388" t="s">
         <v>421</v>
       </c>
@@ -43922,7 +43928,7 @@
         <v>5916</v>
       </c>
     </row>
-    <row r="389" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A389" t="s">
         <v>422</v>
       </c>
@@ -44029,7 +44035,7 @@
         <v>6459</v>
       </c>
     </row>
-    <row r="390" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A390" t="s">
         <v>423</v>
       </c>
@@ -44136,7 +44142,7 @@
         <v>5015</v>
       </c>
     </row>
-    <row r="391" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A391" t="s">
         <v>424</v>
       </c>
@@ -44243,7 +44249,7 @@
         <v>5103</v>
       </c>
     </row>
-    <row r="392" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A392" t="s">
         <v>425</v>
       </c>
@@ -44350,7 +44356,7 @@
         <v>6388</v>
       </c>
     </row>
-    <row r="393" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A393" t="s">
         <v>426</v>
       </c>
@@ -44457,7 +44463,7 @@
         <v>7004</v>
       </c>
     </row>
-    <row r="394" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A394" t="s">
         <v>427</v>
       </c>
@@ -44564,7 +44570,7 @@
         <v>5751</v>
       </c>
     </row>
-    <row r="395" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A395" t="s">
         <v>428</v>
       </c>
@@ -44671,7 +44677,7 @@
         <v>6024</v>
       </c>
     </row>
-    <row r="396" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A396" t="s">
         <v>429</v>
       </c>
@@ -44778,7 +44784,7 @@
         <v>5847</v>
       </c>
     </row>
-    <row r="397" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A397" t="s">
         <v>430</v>
       </c>
@@ -44885,7 +44891,7 @@
         <v>10218</v>
       </c>
     </row>
-    <row r="398" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A398" t="s">
         <v>431</v>
       </c>
@@ -44992,7 +44998,7 @@
         <v>7865</v>
       </c>
     </row>
-    <row r="399" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A399" t="s">
         <v>432</v>
       </c>
@@ -45099,7 +45105,7 @@
         <v>3911</v>
       </c>
     </row>
-    <row r="400" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A400" t="s">
         <v>433</v>
       </c>
@@ -45206,7 +45212,7 @@
         <v>5544</v>
       </c>
     </row>
-    <row r="401" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A401" t="s">
         <v>434</v>
       </c>
@@ -45313,7 +45319,7 @@
         <v>6533</v>
       </c>
     </row>
-    <row r="402" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A402" t="s">
         <v>435</v>
       </c>
@@ -45420,7 +45426,7 @@
         <v>4539</v>
       </c>
     </row>
-    <row r="403" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A403" t="s">
         <v>436</v>
       </c>
@@ -45527,7 +45533,7 @@
         <v>5261</v>
       </c>
     </row>
-    <row r="404" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A404" t="s">
         <v>437</v>
       </c>
@@ -45634,7 +45640,7 @@
         <v>7462</v>
       </c>
     </row>
-    <row r="405" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A405" t="s">
         <v>438</v>
       </c>
@@ -45741,7 +45747,7 @@
         <v>5213</v>
       </c>
     </row>
-    <row r="406" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A406" t="s">
         <v>439</v>
       </c>
@@ -45848,7 +45854,7 @@
         <v>5942</v>
       </c>
     </row>
-    <row r="407" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A407" t="s">
         <v>440</v>
       </c>
@@ -45955,7 +45961,7 @@
         <v>6052</v>
       </c>
     </row>
-    <row r="408" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A408" t="s">
         <v>441</v>
       </c>
@@ -46062,7 +46068,7 @@
         <v>5423</v>
       </c>
     </row>
-    <row r="409" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A409" t="s">
         <v>442</v>
       </c>
@@ -46169,7 +46175,7 @@
         <v>9645</v>
       </c>
     </row>
-    <row r="410" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A410" t="s">
         <v>443</v>
       </c>
@@ -46276,7 +46282,7 @@
         <v>6118</v>
       </c>
     </row>
-    <row r="411" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A411" t="s">
         <v>444</v>
       </c>
@@ -46383,7 +46389,7 @@
         <v>4526</v>
       </c>
     </row>
-    <row r="412" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A412" t="s">
         <v>445</v>
       </c>
@@ -46490,7 +46496,7 @@
         <v>5867</v>
       </c>
     </row>
-    <row r="413" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A413" t="s">
         <v>446</v>
       </c>
@@ -46597,7 +46603,7 @@
         <v>6223</v>
       </c>
     </row>
-    <row r="414" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A414" t="s">
         <v>447</v>
       </c>
@@ -46704,7 +46710,7 @@
         <v>4469</v>
       </c>
     </row>
-    <row r="415" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A415" t="s">
         <v>448</v>
       </c>
@@ -46811,7 +46817,7 @@
         <v>5099</v>
       </c>
     </row>
-    <row r="416" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A416" t="s">
         <v>449</v>
       </c>
@@ -46918,7 +46924,7 @@
         <v>5822</v>
       </c>
     </row>
-    <row r="417" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A417" t="s">
         <v>450</v>
       </c>
@@ -47025,7 +47031,7 @@
         <v>5119</v>
       </c>
     </row>
-    <row r="418" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A418" t="s">
         <v>451</v>
       </c>
@@ -47132,7 +47138,7 @@
         <v>5516</v>
       </c>
     </row>
-    <row r="419" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A419" t="s">
         <v>452</v>
       </c>
@@ -47239,7 +47245,7 @@
         <v>4923</v>
       </c>
     </row>
-    <row r="420" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A420" t="s">
         <v>453</v>
       </c>
@@ -47346,7 +47352,7 @@
         <v>5411</v>
       </c>
     </row>
-    <row r="421" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A421" t="s">
         <v>454</v>
       </c>
@@ -47453,7 +47459,7 @@
         <v>8901</v>
       </c>
     </row>
-    <row r="422" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A422" t="s">
         <v>455</v>
       </c>
@@ -47560,7 +47566,7 @@
         <v>6348</v>
       </c>
     </row>
-    <row r="423" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A423" t="s">
         <v>456</v>
       </c>
@@ -47667,7 +47673,7 @@
         <v>3678</v>
       </c>
     </row>
-    <row r="424" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A424" t="s">
         <v>457</v>
       </c>
@@ -47774,7 +47780,7 @@
         <v>5774</v>
       </c>
     </row>
-    <row r="425" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A425" t="s">
         <v>458</v>
       </c>
@@ -47881,7 +47887,7 @@
         <v>5071</v>
       </c>
     </row>
-    <row r="426" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A426" t="s">
         <v>459</v>
       </c>
@@ -47988,7 +47994,7 @@
         <v>4516</v>
       </c>
     </row>
-    <row r="427" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A427" t="s">
         <v>460</v>
       </c>
@@ -48095,7 +48101,7 @@
         <v>5309</v>
       </c>
     </row>
-    <row r="428" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A428" t="s">
         <v>461</v>
       </c>
@@ -48202,7 +48208,7 @@
         <v>5251</v>
       </c>
     </row>
-    <row r="429" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A429" t="s">
         <v>462</v>
       </c>
@@ -48309,7 +48315,7 @@
         <v>5365</v>
       </c>
     </row>
-    <row r="430" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A430" t="s">
         <v>463</v>
       </c>
@@ -48416,7 +48422,7 @@
         <v>5868</v>
       </c>
     </row>
-    <row r="431" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A431" t="s">
         <v>464</v>
       </c>
@@ -48523,7 +48529,7 @@
         <v>4929</v>
       </c>
     </row>
-    <row r="432" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A432" t="s">
         <v>465</v>
       </c>
@@ -48630,7 +48636,7 @@
         <v>4939</v>
       </c>
     </row>
-    <row r="433" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A433" t="s">
         <v>466</v>
       </c>
@@ -48737,7 +48743,7 @@
         <v>9586</v>
       </c>
     </row>
-    <row r="434" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A434" t="s">
         <v>467</v>
       </c>
@@ -48844,7 +48850,7 @@
         <v>5741</v>
       </c>
     </row>
-    <row r="435" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A435" t="s">
         <v>468</v>
       </c>
@@ -48951,7 +48957,7 @@
         <v>4246</v>
       </c>
     </row>
-    <row r="436" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A436" t="s">
         <v>469</v>
       </c>
@@ -49058,7 +49064,7 @@
         <v>4969</v>
       </c>
     </row>
-    <row r="437" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A437" t="s">
         <v>470</v>
       </c>
@@ -49165,7 +49171,7 @@
         <v>6295</v>
       </c>
     </row>
-    <row r="438" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A438" t="s">
         <v>471</v>
       </c>
@@ -49272,7 +49278,7 @@
         <v>4311</v>
       </c>
     </row>
-    <row r="439" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A439" t="s">
         <v>472</v>
       </c>
@@ -49379,7 +49385,7 @@
         <v>4391</v>
       </c>
     </row>
-    <row r="440" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A440" t="s">
         <v>473</v>
       </c>
@@ -49486,7 +49492,7 @@
         <v>5445</v>
       </c>
     </row>
-    <row r="441" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A441" t="s">
         <v>474</v>
       </c>
@@ -49593,7 +49599,7 @@
         <v>6486</v>
       </c>
     </row>
-    <row r="442" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A442" t="s">
         <v>475</v>
       </c>
@@ -49700,7 +49706,7 @@
         <v>4856</v>
       </c>
     </row>
-    <row r="443" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A443" t="s">
         <v>476</v>
       </c>
@@ -49807,7 +49813,7 @@
         <v>4206</v>
       </c>
     </row>
-    <row r="444" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A444" t="s">
         <v>477</v>
       </c>
@@ -49914,7 +49920,7 @@
         <v>5517</v>
       </c>
     </row>
-    <row r="445" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A445" t="s">
         <v>478</v>
       </c>
@@ -50021,7 +50027,7 @@
         <v>9607</v>
       </c>
     </row>
-    <row r="446" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A446" t="s">
         <v>479</v>
       </c>
@@ -50128,7 +50134,7 @@
         <v>6391</v>
       </c>
     </row>
-    <row r="447" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A447" t="s">
         <v>480</v>
       </c>
@@ -50235,7 +50241,7 @@
         <v>3567</v>
       </c>
     </row>
-    <row r="448" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A448" t="s">
         <v>481</v>
       </c>
@@ -50342,7 +50348,7 @@
         <v>5150</v>
       </c>
     </row>
-    <row r="449" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A449" t="s">
         <v>482</v>
       </c>
@@ -50449,7 +50455,7 @@
         <v>6424</v>
       </c>
     </row>
-    <row r="450" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A450" t="s">
         <v>483</v>
       </c>
@@ -50556,7 +50562,7 @@
         <v>4675</v>
       </c>
     </row>
-    <row r="451" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A451" t="s">
         <v>484</v>
       </c>
@@ -50663,7 +50669,7 @@
         <v>4061</v>
       </c>
     </row>
-    <row r="452" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A452" t="s">
         <v>485</v>
       </c>
@@ -50770,7 +50776,7 @@
         <v>5398</v>
       </c>
     </row>
-    <row r="453" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A453" t="s">
         <v>486</v>
       </c>
@@ -50877,7 +50883,7 @@
         <v>6111</v>
       </c>
     </row>
-    <row r="454" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A454" t="s">
         <v>487</v>
       </c>
@@ -50984,7 +50990,7 @@
         <v>5219</v>
       </c>
     </row>
-    <row r="455" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A455" t="s">
         <v>488</v>
       </c>
@@ -51091,7 +51097,7 @@
         <v>5876</v>
       </c>
     </row>
-    <row r="456" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A456" t="s">
         <v>489</v>
       </c>
@@ -51198,7 +51204,7 @@
         <v>5429</v>
       </c>
     </row>
-    <row r="457" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A457" t="s">
         <v>490</v>
       </c>
@@ -51305,7 +51311,7 @@
         <v>9152</v>
       </c>
     </row>
-    <row r="458" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A458" t="s">
         <v>491</v>
       </c>
@@ -51412,7 +51418,7 @@
         <v>6369</v>
       </c>
     </row>
-    <row r="459" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A459" t="s">
         <v>492</v>
       </c>
@@ -51519,7 +51525,7 @@
         <v>3598</v>
       </c>
     </row>
-    <row r="460" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A460" t="s">
         <v>493</v>
       </c>
@@ -51626,7 +51632,7 @@
         <v>6063</v>
       </c>
     </row>
-    <row r="461" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A461" t="s">
         <v>494</v>
       </c>
@@ -51733,7 +51739,7 @@
         <v>6315</v>
       </c>
     </row>
-    <row r="462" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A462" t="s">
         <v>495</v>
       </c>
@@ -51840,7 +51846,7 @@
         <v>4952</v>
       </c>
     </row>
-    <row r="463" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A463" t="s">
         <v>496</v>
       </c>
@@ -51947,7 +51953,7 @@
         <v>3942</v>
       </c>
     </row>
-    <row r="464" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A464" t="s">
         <v>497</v>
       </c>
@@ -52054,7 +52060,7 @@
         <v>6181</v>
       </c>
     </row>
-    <row r="465" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A465" t="s">
         <v>498</v>
       </c>
@@ -52161,7 +52167,7 @@
         <v>6491</v>
       </c>
     </row>
-    <row r="466" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A466" t="s">
         <v>499</v>
       </c>
@@ -52268,7 +52274,7 @@
         <v>5317</v>
       </c>
     </row>
-    <row r="467" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A467" t="s">
         <v>500</v>
       </c>
@@ -52375,7 +52381,7 @@
         <v>6022</v>
       </c>
     </row>
-    <row r="468" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A468" t="s">
         <v>501</v>
       </c>
@@ -52482,7 +52488,7 @@
         <v>6488</v>
       </c>
     </row>
-    <row r="469" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A469" t="s">
         <v>502</v>
       </c>
@@ -52589,7 +52595,7 @@
         <v>10797</v>
       </c>
     </row>
-    <row r="470" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A470" t="s">
         <v>503</v>
       </c>
@@ -52696,7 +52702,7 @@
         <v>7046</v>
       </c>
     </row>
-    <row r="471" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A471" t="s">
         <v>504</v>
       </c>
@@ -52803,7 +52809,7 @@
         <v>4414</v>
       </c>
     </row>
-    <row r="472" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A472" t="s">
         <v>505</v>
       </c>
@@ -52910,7 +52916,7 @@
         <v>5581</v>
       </c>
     </row>
-    <row r="473" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A473" t="s">
         <v>506</v>
       </c>
@@ -53017,7 +53023,7 @@
         <v>7204</v>
       </c>
     </row>
-    <row r="474" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A474" t="s">
         <v>507</v>
       </c>
@@ -53124,7 +53130,7 @@
         <v>4792</v>
       </c>
     </row>
-    <row r="475" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A475" t="s">
         <v>508</v>
       </c>
@@ -53231,7 +53237,7 @@
         <v>4433</v>
       </c>
     </row>
-    <row r="476" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A476" t="s">
         <v>509</v>
       </c>
@@ -53338,7 +53344,7 @@
         <v>6964</v>
       </c>
     </row>
-    <row r="477" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A477" t="s">
         <v>510</v>
       </c>
@@ -53445,7 +53451,7 @@
         <v>6987</v>
       </c>
     </row>
-    <row r="478" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A478" t="s">
         <v>511</v>
       </c>
@@ -53552,7 +53558,7 @@
         <v>5458</v>
       </c>
     </row>
-    <row r="479" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A479" t="s">
         <v>512</v>
       </c>
@@ -53659,7 +53665,7 @@
         <v>5635</v>
       </c>
     </row>
-    <row r="480" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A480" t="s">
         <v>513</v>
       </c>
